--- a/spec/test_files/all_combinations/data.xlsx
+++ b/spec/test_files/all_combinations/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moorer/projects/matr/spec/test_files/all_combinations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06211722-F003-D446-AC14-E924C057A174}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9503E4C8-D2FD-BD49-A09E-1F951F62509F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="23440" xr2:uid="{728EC1C8-EA4D-6A46-A902-18F57BB3481A}"/>
+    <workbookView xWindow="-30560" yWindow="4180" windowWidth="28040" windowHeight="17440" xr2:uid="{728EC1C8-EA4D-6A46-A902-18F57BB3481A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D5F65A-BC42-204A-AB45-C0B4646A6FCA}">
   <dimension ref="B1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O99" sqref="O99"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
